--- a/schedule-2021-07.xlsx
+++ b/schedule-2021-07.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="31">
   <si>
     <t>ワークタイトル</t>
     <phoneticPr fontId="3"/>
@@ -175,6 +175,10 @@
   </si>
   <si>
     <t>android studio</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Kotlin</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1120,10 +1124,10 @@
   <dimension ref="A1:CU30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="H17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="AA14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2174,13 +2178,21 @@
       <c r="AM7" s="33"/>
       <c r="AN7" s="33"/>
       <c r="AO7" s="33"/>
-      <c r="AP7" s="33"/>
-      <c r="AQ7" s="33"/>
-      <c r="AR7" s="33"/>
+      <c r="AP7" s="33">
+        <v>2</v>
+      </c>
+      <c r="AQ7" s="33">
+        <v>2</v>
+      </c>
+      <c r="AR7" s="33">
+        <v>2</v>
+      </c>
       <c r="AS7" s="33"/>
       <c r="AT7" s="33"/>
       <c r="AU7" s="33"/>
-      <c r="AV7" s="33"/>
+      <c r="AV7" s="33">
+        <v>2</v>
+      </c>
       <c r="AW7" s="33"/>
       <c r="AX7" s="33"/>
       <c r="AY7" s="33"/>
@@ -2601,7 +2613,9 @@
       <c r="AJ11" s="33">
         <v>2</v>
       </c>
-      <c r="AK11" s="33"/>
+      <c r="AK11" s="33">
+        <v>2</v>
+      </c>
       <c r="AL11" s="33"/>
       <c r="AM11" s="33"/>
       <c r="AN11" s="33"/>
@@ -2894,7 +2908,9 @@
     </row>
     <row r="14" spans="1:99" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="20"/>
-      <c r="B14" s="9"/>
+      <c r="B14" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
       <c r="E14" s="17"/>
@@ -2935,8 +2951,12 @@
       <c r="AN14" s="33"/>
       <c r="AO14" s="33"/>
       <c r="AP14" s="33"/>
-      <c r="AQ14" s="33"/>
-      <c r="AR14" s="33"/>
+      <c r="AQ14" s="33">
+        <v>2</v>
+      </c>
+      <c r="AR14" s="33">
+        <v>2</v>
+      </c>
       <c r="AS14" s="33"/>
       <c r="AT14" s="33"/>
       <c r="AU14" s="33"/>
@@ -3512,7 +3532,7 @@
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
       <c r="E20" s="21">
-        <v>8.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="31"/>
@@ -3558,13 +3578,21 @@
       <c r="AM20" s="33"/>
       <c r="AN20" s="33"/>
       <c r="AO20" s="33"/>
-      <c r="AP20" s="33"/>
-      <c r="AQ20" s="33"/>
-      <c r="AR20" s="33"/>
+      <c r="AP20" s="33">
+        <v>1</v>
+      </c>
+      <c r="AQ20" s="33">
+        <v>1</v>
+      </c>
+      <c r="AR20" s="33">
+        <v>1</v>
+      </c>
       <c r="AS20" s="33"/>
       <c r="AT20" s="33"/>
       <c r="AU20" s="33"/>
-      <c r="AV20" s="33"/>
+      <c r="AV20" s="33">
+        <v>1</v>
+      </c>
       <c r="AW20" s="33"/>
       <c r="AX20" s="33"/>
       <c r="AY20" s="33"/>
@@ -3932,7 +3960,7 @@
       <c r="C24" s="9"/>
       <c r="D24" s="13"/>
       <c r="E24" s="17">
-        <v>23.5</v>
+        <v>24.5</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="31"/>
@@ -3989,7 +4017,9 @@
       <c r="AJ24" s="33">
         <v>1</v>
       </c>
-      <c r="AK24" s="33"/>
+      <c r="AK24" s="33">
+        <v>1</v>
+      </c>
       <c r="AL24" s="33"/>
       <c r="AM24" s="33"/>
       <c r="AN24" s="33"/>
@@ -4287,10 +4317,14 @@
     </row>
     <row r="27" spans="1:99" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28"/>
-      <c r="B27" s="9"/>
+      <c r="B27" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="C27" s="9"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="21"/>
+      <c r="E27" s="21">
+        <v>2</v>
+      </c>
       <c r="F27" s="11"/>
       <c r="G27" s="31"/>
       <c r="H27" s="33"/>
@@ -4328,8 +4362,12 @@
       <c r="AN27" s="33"/>
       <c r="AO27" s="33"/>
       <c r="AP27" s="33"/>
-      <c r="AQ27" s="33"/>
-      <c r="AR27" s="33"/>
+      <c r="AQ27" s="33">
+        <v>1</v>
+      </c>
+      <c r="AR27" s="33">
+        <v>1</v>
+      </c>
       <c r="AS27" s="33"/>
       <c r="AT27" s="33"/>
       <c r="AU27" s="33"/>

--- a/schedule-2021-07.xlsx
+++ b/schedule-2021-07.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="34">
   <si>
     <t>ワークタイトル</t>
     <phoneticPr fontId="3"/>
@@ -179,6 +179,18 @@
   </si>
   <si>
     <t>Kotlin</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Word</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Python</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Ruby</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1124,10 +1136,10 @@
   <dimension ref="A1:CU30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="AA14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="BH11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3532,7 +3544,7 @@
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
       <c r="E20" s="21">
-        <v>19.399999999999999</v>
+        <v>42.5</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="31"/>
@@ -3593,33 +3605,55 @@
       <c r="AV20" s="33">
         <v>1</v>
       </c>
-      <c r="AW20" s="33"/>
-      <c r="AX20" s="33"/>
+      <c r="AW20" s="33">
+        <v>1</v>
+      </c>
+      <c r="AX20" s="33">
+        <v>1</v>
+      </c>
       <c r="AY20" s="33"/>
       <c r="AZ20" s="33"/>
       <c r="BA20" s="33"/>
       <c r="BB20" s="33"/>
-      <c r="BC20" s="33"/>
-      <c r="BD20" s="33"/>
-      <c r="BE20" s="33"/>
+      <c r="BC20" s="33">
+        <v>1</v>
+      </c>
+      <c r="BD20" s="33">
+        <v>1</v>
+      </c>
+      <c r="BE20" s="33">
+        <v>1</v>
+      </c>
       <c r="BF20" s="33"/>
       <c r="BG20" s="33"/>
       <c r="BH20" s="33"/>
-      <c r="BI20" s="33"/>
-      <c r="BJ20" s="33"/>
-      <c r="BK20" s="33"/>
+      <c r="BI20" s="33">
+        <v>1</v>
+      </c>
+      <c r="BJ20" s="33">
+        <v>1</v>
+      </c>
+      <c r="BK20" s="33">
+        <v>1</v>
+      </c>
       <c r="BL20" s="33"/>
       <c r="BM20" s="33"/>
       <c r="BN20" s="33"/>
       <c r="BO20" s="33"/>
-      <c r="BP20" s="33"/>
-      <c r="BQ20" s="33"/>
+      <c r="BP20" s="33">
+        <v>1</v>
+      </c>
+      <c r="BQ20" s="33">
+        <v>1</v>
+      </c>
       <c r="BR20" s="33"/>
       <c r="BS20" s="33"/>
       <c r="BT20" s="33"/>
       <c r="BU20" s="33"/>
       <c r="BV20" s="33"/>
-      <c r="BW20" s="33"/>
+      <c r="BW20" s="33">
+        <v>1</v>
+      </c>
       <c r="BX20" s="33"/>
       <c r="BY20" s="33"/>
       <c r="BZ20" s="33"/>
@@ -3960,7 +3994,7 @@
       <c r="C24" s="9"/>
       <c r="D24" s="13"/>
       <c r="E24" s="17">
-        <v>24.5</v>
+        <v>35</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="31"/>
@@ -4038,16 +4072,28 @@
       <c r="BA24" s="33"/>
       <c r="BB24" s="33"/>
       <c r="BC24" s="33"/>
-      <c r="BD24" s="33"/>
-      <c r="BE24" s="33"/>
+      <c r="BD24" s="33">
+        <v>1</v>
+      </c>
+      <c r="BE24" s="33">
+        <v>1</v>
+      </c>
       <c r="BF24" s="33"/>
       <c r="BG24" s="33"/>
       <c r="BH24" s="33"/>
-      <c r="BI24" s="33"/>
+      <c r="BI24" s="33">
+        <v>1</v>
+      </c>
       <c r="BJ24" s="33"/>
-      <c r="BK24" s="33"/>
-      <c r="BL24" s="33"/>
-      <c r="BM24" s="33"/>
+      <c r="BK24" s="33">
+        <v>1</v>
+      </c>
+      <c r="BL24" s="33">
+        <v>1</v>
+      </c>
+      <c r="BM24" s="33">
+        <v>1</v>
+      </c>
       <c r="BN24" s="33"/>
       <c r="BO24" s="33"/>
       <c r="BP24" s="33"/>
@@ -4091,7 +4137,7 @@
       <c r="C25" s="9"/>
       <c r="D25" s="14"/>
       <c r="E25" s="17">
-        <v>9.4499999999999993</v>
+        <v>12.45</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="31"/>
@@ -4168,11 +4214,15 @@
       <c r="BJ25" s="33"/>
       <c r="BK25" s="33"/>
       <c r="BL25" s="33"/>
-      <c r="BM25" s="33"/>
+      <c r="BM25" s="33">
+        <v>1</v>
+      </c>
       <c r="BN25" s="33"/>
       <c r="BO25" s="33"/>
       <c r="BP25" s="33"/>
-      <c r="BQ25" s="33"/>
+      <c r="BQ25" s="33">
+        <v>1</v>
+      </c>
       <c r="BR25" s="33"/>
       <c r="BS25" s="33"/>
       <c r="BT25" s="33"/>
@@ -4180,7 +4230,9 @@
       <c r="BV25" s="33"/>
       <c r="BW25" s="33"/>
       <c r="BX25" s="33"/>
-      <c r="BY25" s="33"/>
+      <c r="BY25" s="33">
+        <v>1</v>
+      </c>
       <c r="BZ25" s="33"/>
       <c r="CA25" s="33"/>
       <c r="CB25" s="33"/>
@@ -4212,7 +4264,7 @@
       <c r="C26" s="9"/>
       <c r="D26" s="10"/>
       <c r="E26" s="21">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="31"/>
@@ -4279,7 +4331,9 @@
       <c r="BJ26" s="33"/>
       <c r="BK26" s="33"/>
       <c r="BL26" s="33"/>
-      <c r="BM26" s="33"/>
+      <c r="BM26" s="33">
+        <v>1</v>
+      </c>
       <c r="BN26" s="33"/>
       <c r="BO26" s="33"/>
       <c r="BP26" s="33"/>
@@ -4290,7 +4344,9 @@
       <c r="BU26" s="33"/>
       <c r="BV26" s="33"/>
       <c r="BW26" s="33"/>
-      <c r="BX26" s="33"/>
+      <c r="BX26" s="33">
+        <v>1</v>
+      </c>
       <c r="BY26" s="33"/>
       <c r="BZ26" s="33"/>
       <c r="CA26" s="33"/>
@@ -4426,10 +4482,14 @@
     </row>
     <row r="28" spans="1:99" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="28"/>
-      <c r="B28" s="9"/>
+      <c r="B28" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="C28" s="9"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="21"/>
+      <c r="E28" s="21">
+        <v>3</v>
+      </c>
       <c r="F28" s="11"/>
       <c r="G28" s="31"/>
       <c r="H28" s="33"/>
@@ -4489,7 +4549,9 @@
       <c r="BJ28" s="33"/>
       <c r="BK28" s="33"/>
       <c r="BL28" s="33"/>
-      <c r="BM28" s="33"/>
+      <c r="BM28" s="33">
+        <v>1</v>
+      </c>
       <c r="BN28" s="33"/>
       <c r="BO28" s="33"/>
       <c r="BP28" s="33"/>
@@ -4499,8 +4561,12 @@
       <c r="BT28" s="33"/>
       <c r="BU28" s="33"/>
       <c r="BV28" s="33"/>
-      <c r="BW28" s="33"/>
-      <c r="BX28" s="33"/>
+      <c r="BW28" s="33">
+        <v>1</v>
+      </c>
+      <c r="BX28" s="33">
+        <v>1</v>
+      </c>
       <c r="BY28" s="33"/>
       <c r="BZ28" s="33"/>
       <c r="CA28" s="33"/>
@@ -4527,10 +4593,14 @@
     </row>
     <row r="29" spans="1:99" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="28"/>
-      <c r="B29" s="9"/>
+      <c r="B29" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="C29" s="9"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="21"/>
+      <c r="E29" s="21">
+        <v>3</v>
+      </c>
       <c r="F29" s="11"/>
       <c r="G29" s="31"/>
       <c r="H29" s="33"/>
@@ -4601,8 +4671,12 @@
       <c r="BU29" s="33"/>
       <c r="BV29" s="33"/>
       <c r="BW29" s="33"/>
-      <c r="BX29" s="33"/>
-      <c r="BY29" s="33"/>
+      <c r="BX29" s="33">
+        <v>1</v>
+      </c>
+      <c r="BY29" s="33">
+        <v>1</v>
+      </c>
       <c r="BZ29" s="33"/>
       <c r="CA29" s="33"/>
       <c r="CB29" s="33"/>
@@ -4628,10 +4702,14 @@
     </row>
     <row r="30" spans="1:99" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="28"/>
-      <c r="B30" s="9"/>
+      <c r="B30" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="C30" s="9"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="21"/>
+      <c r="E30" s="21">
+        <v>1</v>
+      </c>
       <c r="F30" s="11"/>
       <c r="G30" s="31"/>
       <c r="H30" s="33"/>
@@ -4703,7 +4781,9 @@
       <c r="BV30" s="33"/>
       <c r="BW30" s="33"/>
       <c r="BX30" s="33"/>
-      <c r="BY30" s="33"/>
+      <c r="BY30" s="33">
+        <v>1</v>
+      </c>
       <c r="BZ30" s="33"/>
       <c r="CA30" s="33"/>
       <c r="CB30" s="33"/>

--- a/schedule-2021-07.xlsx
+++ b/schedule-2021-07.xlsx
@@ -1136,10 +1136,10 @@
   <dimension ref="A1:CU30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="BH11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="BH5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="CU13" sqref="CU13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2255,7 +2255,9 @@
       <c r="CR7" s="33"/>
       <c r="CS7" s="33"/>
       <c r="CT7" s="33"/>
-      <c r="CU7" s="33"/>
+      <c r="CU7" s="33">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:99" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="20"/>
@@ -2807,7 +2809,9 @@
       <c r="CR12" s="33"/>
       <c r="CS12" s="33"/>
       <c r="CT12" s="33"/>
-      <c r="CU12" s="33"/>
+      <c r="CU12" s="33">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:99" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20"/>
@@ -3544,7 +3548,7 @@
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
       <c r="E20" s="21">
-        <v>42.5</v>
+        <v>64</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="31"/>
@@ -3661,22 +3665,42 @@
       <c r="CB20" s="33"/>
       <c r="CC20" s="33"/>
       <c r="CD20" s="33"/>
-      <c r="CE20" s="33"/>
-      <c r="CF20" s="33"/>
-      <c r="CG20" s="33"/>
+      <c r="CE20" s="33">
+        <v>1</v>
+      </c>
+      <c r="CF20" s="33">
+        <v>1</v>
+      </c>
+      <c r="CG20" s="33">
+        <v>1</v>
+      </c>
       <c r="CH20" s="33"/>
       <c r="CI20" s="33"/>
       <c r="CJ20" s="33"/>
       <c r="CK20" s="33"/>
-      <c r="CL20" s="33"/>
-      <c r="CM20" s="33"/>
+      <c r="CL20" s="33">
+        <v>1</v>
+      </c>
+      <c r="CM20" s="33">
+        <v>1</v>
+      </c>
       <c r="CN20" s="33"/>
-      <c r="CO20" s="33"/>
-      <c r="CP20" s="33"/>
+      <c r="CO20" s="33">
+        <v>1</v>
+      </c>
+      <c r="CP20" s="33">
+        <v>1</v>
+      </c>
       <c r="CQ20" s="33"/>
-      <c r="CR20" s="33"/>
-      <c r="CS20" s="33"/>
-      <c r="CT20" s="33"/>
+      <c r="CR20" s="33">
+        <v>1</v>
+      </c>
+      <c r="CS20" s="33">
+        <v>1</v>
+      </c>
+      <c r="CT20" s="33">
+        <v>1</v>
+      </c>
       <c r="CU20" s="33"/>
     </row>
     <row r="21" spans="1:99" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4137,7 +4161,7 @@
       <c r="C25" s="9"/>
       <c r="D25" s="14"/>
       <c r="E25" s="17">
-        <v>12.45</v>
+        <v>18.2</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="31"/>
@@ -4233,27 +4257,39 @@
       <c r="BY25" s="33">
         <v>1</v>
       </c>
-      <c r="BZ25" s="33"/>
+      <c r="BZ25" s="33">
+        <v>1</v>
+      </c>
       <c r="CA25" s="33"/>
       <c r="CB25" s="33"/>
       <c r="CC25" s="33"/>
       <c r="CD25" s="33"/>
-      <c r="CE25" s="33"/>
+      <c r="CE25" s="33">
+        <v>1</v>
+      </c>
       <c r="CF25" s="33"/>
       <c r="CG25" s="33"/>
       <c r="CH25" s="33"/>
       <c r="CI25" s="33"/>
       <c r="CJ25" s="33"/>
       <c r="CK25" s="33"/>
-      <c r="CL25" s="33"/>
-      <c r="CM25" s="33"/>
+      <c r="CL25" s="33">
+        <v>1</v>
+      </c>
+      <c r="CM25" s="33">
+        <v>1</v>
+      </c>
       <c r="CN25" s="33"/>
-      <c r="CO25" s="33"/>
+      <c r="CO25" s="33">
+        <v>1</v>
+      </c>
       <c r="CP25" s="33"/>
       <c r="CQ25" s="33"/>
       <c r="CR25" s="33"/>
       <c r="CS25" s="33"/>
-      <c r="CT25" s="33"/>
+      <c r="CT25" s="33">
+        <v>1</v>
+      </c>
       <c r="CU25" s="33"/>
     </row>
     <row r="26" spans="1:99" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4264,7 +4300,7 @@
       <c r="C26" s="9"/>
       <c r="D26" s="10"/>
       <c r="E26" s="21">
-        <v>2.9</v>
+        <v>5.9</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="31"/>
@@ -4348,12 +4384,16 @@
         <v>1</v>
       </c>
       <c r="BY26" s="33"/>
-      <c r="BZ26" s="33"/>
+      <c r="BZ26" s="33">
+        <v>1</v>
+      </c>
       <c r="CA26" s="33"/>
       <c r="CB26" s="33"/>
       <c r="CC26" s="33"/>
       <c r="CD26" s="33"/>
-      <c r="CE26" s="33"/>
+      <c r="CE26" s="33">
+        <v>1</v>
+      </c>
       <c r="CF26" s="33"/>
       <c r="CG26" s="33"/>
       <c r="CH26" s="33"/>
@@ -4361,14 +4401,18 @@
       <c r="CJ26" s="33"/>
       <c r="CK26" s="33"/>
       <c r="CL26" s="33"/>
-      <c r="CM26" s="33"/>
+      <c r="CM26" s="33">
+        <v>1</v>
+      </c>
       <c r="CN26" s="33"/>
       <c r="CO26" s="33"/>
       <c r="CP26" s="33"/>
       <c r="CQ26" s="33"/>
       <c r="CR26" s="33"/>
       <c r="CS26" s="33"/>
-      <c r="CT26" s="33"/>
+      <c r="CT26" s="33">
+        <v>1</v>
+      </c>
       <c r="CU26" s="33"/>
     </row>
     <row r="27" spans="1:99" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4488,7 +4532,7 @@
       <c r="C28" s="9"/>
       <c r="D28" s="14"/>
       <c r="E28" s="21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="31"/>
@@ -4580,13 +4624,21 @@
       <c r="CI28" s="33"/>
       <c r="CJ28" s="33"/>
       <c r="CK28" s="33"/>
-      <c r="CL28" s="33"/>
+      <c r="CL28" s="33">
+        <v>1</v>
+      </c>
       <c r="CM28" s="33"/>
       <c r="CN28" s="33"/>
-      <c r="CO28" s="33"/>
-      <c r="CP28" s="33"/>
+      <c r="CO28" s="33">
+        <v>1</v>
+      </c>
+      <c r="CP28" s="33">
+        <v>1</v>
+      </c>
       <c r="CQ28" s="33"/>
-      <c r="CR28" s="33"/>
+      <c r="CR28" s="33">
+        <v>1</v>
+      </c>
       <c r="CS28" s="33"/>
       <c r="CT28" s="33"/>
       <c r="CU28" s="33"/>
@@ -4599,7 +4651,7 @@
       <c r="C29" s="9"/>
       <c r="D29" s="14"/>
       <c r="E29" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="31"/>
@@ -4677,7 +4729,9 @@
       <c r="BY29" s="33">
         <v>1</v>
       </c>
-      <c r="BZ29" s="33"/>
+      <c r="BZ29" s="33">
+        <v>1</v>
+      </c>
       <c r="CA29" s="33"/>
       <c r="CB29" s="33"/>
       <c r="CC29" s="33"/>
